--- a/CST_EDA_2025.xlsx
+++ b/CST_EDA_2025.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Matricula</t>
   </si>
@@ -32,6 +32,24 @@
   </si>
   <si>
     <t xml:space="preserve">Recuperação 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avaliação 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recuperação 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avaliação 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recuperação 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avaliação 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recuperação 04</t>
   </si>
   <si>
     <t xml:space="preserve">ARTHUR MAZZARDO NAUE</t>
@@ -95,6 +113,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -154,8 +173,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -290,235 +313,350 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>202410004440</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>202310003436</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>202410003560</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>202410000490</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>202410004424</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>202410003584</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="D7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>202410003931</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>202410005122</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>202310003436</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>202310007170</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>202310023418</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <v>202410003937</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>202410050430</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>202410008932</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="D14" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>202410003510</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
+        <v>202410003233</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
+        <v>202410009226</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>202410003560</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>202410000490</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>202410004424</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>202410003584</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>202410003931</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>202410005122</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>202310007170</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>202310023418</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>202410003937</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>202410050430</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>202410008932</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
-        <v>202410003510</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
-        <v>202410003233</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
-        <v>202410009226</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>6</v>
-      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/CST_EDA_2025.xlsx
+++ b/CST_EDA_2025.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Matricula</t>
   </si>
@@ -44,12 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">Recuperação 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avaliação 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recuperação 04</t>
   </si>
   <si>
     <t xml:space="preserve">ARTHUR MAZZARDO NAUE</t>
@@ -316,7 +310,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -324,10 +318,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -355,36 +349,29 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>202410004440</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>7</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="1"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="1"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>202310003436</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>6</v>
@@ -404,24 +391,21 @@
         <v>202410003560</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>9</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="1"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="1"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>202410000490</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5</v>
@@ -441,7 +425,7 @@
         <v>202410004424</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3</v>
@@ -461,7 +445,7 @@
         <v>202410003584</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4</v>
@@ -481,24 +465,21 @@
         <v>202410003931</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
         <v>202410005122</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>5</v>
@@ -518,7 +499,7 @@
         <v>202310007170</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>6</v>
@@ -538,7 +519,7 @@
         <v>202310023418</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4</v>
@@ -558,7 +539,7 @@
         <v>202410003937</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4</v>
@@ -578,24 +559,21 @@
         <v>202410050430</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="1"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <v>202410008932</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>5</v>
@@ -615,35 +593,29 @@
         <v>202410003510</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="J15" s="1"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
         <v>202410003233</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="1"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="1"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <v>202410009226</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>5</v>

--- a/CST_EDA_2025.xlsx
+++ b/CST_EDA_2025.xlsx
@@ -46,52 +46,52 @@
     <t xml:space="preserve">Recuperação 03</t>
   </si>
   <si>
-    <t xml:space="preserve">ARTHUR MAZZARDO NAUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARLOS ALBERTO DE SOUZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIEL DIFENTTHAELER SANTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABRIEL LAZZARI OLIVEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABRIEL MENDES ALVES ORTIZ PAULO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIGOR RODRIGUES ESTEVÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOAO PEDRO CARDOSO PERFEITO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUIZ FELIPE SCHALATA PACHECO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARIA EDUARDA DE OLIVEIRA ALVES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARILIA STEFENON RODRIGUES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICHEL DAVID DE SOUZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSWALDO GABRIEL CARDOSO CORRÊA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PATRICIA VOIGT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDRO JAREMCZUK ZANONI SILVEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RODRIGO RAMOS DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VICTOR LEONARDO FAGUNDES DOS SANTOS</t>
+    <t xml:space="preserve">LUCAS MENEZES DOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRENDA LIMA COSTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FELIPE HENRIQUE FERREIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUSTAVO RAMOS NOGUEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HENRIQUE CARDOSO LEAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISABELLA SOUZA FARIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VINICIUS SANTANA LOPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAURA VIEIRA ALMEIDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIELA RIBEIRO MORAES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TATIANA LOPES BARBOSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUARDO CASTRO TEIXEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROBERTO GOMES BASTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUELA DIAS MOREIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIEGO COSTA BRAGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAYANE OLIVEIRA PIRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THIAGO FREITAS CAVALCANTE</t>
   </si>
 </sst>
 </file>
@@ -310,7 +310,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -356,7 +356,7 @@
       <c r="A2" s="3" t="n">
         <v>202410004440</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="n">
@@ -370,7 +370,7 @@
       <c r="A3" s="3" t="n">
         <v>202310003436</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="n">
@@ -390,7 +390,7 @@
       <c r="A4" s="3" t="n">
         <v>202410003560</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="n">
@@ -404,7 +404,7 @@
       <c r="A5" s="3" t="n">
         <v>202410000490</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="n">
@@ -424,7 +424,7 @@
       <c r="A6" s="3" t="n">
         <v>202410004424</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
@@ -444,7 +444,7 @@
       <c r="A7" s="3" t="n">
         <v>202410003584</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="n">
@@ -464,7 +464,7 @@
       <c r="A8" s="3" t="n">
         <v>202410003931</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="2" t="n">
@@ -478,7 +478,7 @@
       <c r="A9" s="3" t="n">
         <v>202410005122</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2" t="n">
@@ -498,7 +498,7 @@
       <c r="A10" s="3" t="n">
         <v>202310007170</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2" t="n">
@@ -518,7 +518,7 @@
       <c r="A11" s="3" t="n">
         <v>202310023418</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2" t="n">
@@ -538,7 +538,7 @@
       <c r="A12" s="3" t="n">
         <v>202410003937</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2" t="n">
@@ -558,7 +558,7 @@
       <c r="A13" s="3" t="n">
         <v>202410050430</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="2" t="n">
@@ -572,7 +572,7 @@
       <c r="A14" s="3" t="n">
         <v>202410008932</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="2" t="n">
@@ -592,7 +592,7 @@
       <c r="A15" s="3" t="n">
         <v>202410003510</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="0" t="s">
         <v>21</v>
       </c>
     </row>
@@ -600,7 +600,7 @@
       <c r="A16" s="3" t="n">
         <v>202410003233</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="0" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="2" t="n">
@@ -614,7 +614,7 @@
       <c r="A17" s="3" t="n">
         <v>202410009226</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="2" t="n">

--- a/CST_EDA_2025.xlsx
+++ b/CST_EDA_2025.xlsx
@@ -46,52 +46,52 @@
     <t xml:space="preserve">Recuperação 03</t>
   </si>
   <si>
-    <t xml:space="preserve">LUCAS MENEZES DOS SANTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRENDA LIMA COSTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FELIPE HENRIQUE FERREIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUSTAVO RAMOS NOGUEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HENRIQUE CARDOSO LEAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISABELLA SOUZA FARIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VINICIUS SANTANA LOPES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAURA VIEIRA ALMEIDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIELA RIBEIRO MORAES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TATIANA LOPES BARBOSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDUARDO CASTRO TEIXEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROBERTO GOMES BASTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANUELA DIAS MOREIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIEGO COSTA BRAGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAYANE OLIVEIRA PIRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THIAGO FREITAS CAVALCANTE</t>
+    <t xml:space="preserve">ARTHUR MAZZARDO NAUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS ALBERTO DE SOUZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIEL DIFENTTHAELER SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIEL LAZZARI OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIEL MENDES ALVES ORTIZ PAULO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIGOR RODRIGUES ESTEVÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOAO PEDRO CARDOSO PERFEITO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUIZ FELIPE SCHALATA PACHECO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIA EDUARDA DE OLIVEIRA ALVES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARILIA STEFENON RODRIGUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICHEL DAVID DE SOUZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSWALDO GABRIEL CARDOSO CORRÊA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATRICIA VOIGT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDRO JAREMCZUK ZANONI SILVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODRIGO RAMOS DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VICTOR LEONARDO FAGUNDES DOS SANTOS</t>
   </si>
 </sst>
 </file>
@@ -310,7 +310,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -356,7 +356,7 @@
       <c r="A2" s="3" t="n">
         <v>202410004440</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="n">
@@ -370,7 +370,7 @@
       <c r="A3" s="3" t="n">
         <v>202310003436</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="n">
@@ -390,7 +390,7 @@
       <c r="A4" s="3" t="n">
         <v>202410003560</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="n">
@@ -404,7 +404,7 @@
       <c r="A5" s="3" t="n">
         <v>202410000490</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="n">
@@ -424,7 +424,7 @@
       <c r="A6" s="3" t="n">
         <v>202410004424</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="n">
@@ -444,7 +444,7 @@
       <c r="A7" s="3" t="n">
         <v>202410003584</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="n">
@@ -464,7 +464,7 @@
       <c r="A8" s="3" t="n">
         <v>202410003931</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="2" t="n">
@@ -478,7 +478,7 @@
       <c r="A9" s="3" t="n">
         <v>202410005122</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2" t="n">
@@ -498,7 +498,7 @@
       <c r="A10" s="3" t="n">
         <v>202310007170</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2" t="n">
@@ -518,7 +518,7 @@
       <c r="A11" s="3" t="n">
         <v>202310023418</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2" t="n">
@@ -538,7 +538,7 @@
       <c r="A12" s="3" t="n">
         <v>202410003937</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2" t="n">
@@ -558,7 +558,7 @@
       <c r="A13" s="3" t="n">
         <v>202410050430</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="2" t="n">
@@ -572,7 +572,7 @@
       <c r="A14" s="3" t="n">
         <v>202410008932</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="2" t="n">
@@ -592,7 +592,7 @@
       <c r="A15" s="3" t="n">
         <v>202410003510</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -600,7 +600,7 @@
       <c r="A16" s="3" t="n">
         <v>202410003233</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="2" t="n">
@@ -614,7 +614,7 @@
       <c r="A17" s="3" t="n">
         <v>202410009226</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="2" t="n">
